--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fzd1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H2">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N2">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P2">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q2">
-        <v>0.4755866421654444</v>
+        <v>0.8833129719399999</v>
       </c>
       <c r="R2">
-        <v>4.280279779489</v>
+        <v>7.94981674746</v>
       </c>
       <c r="S2">
-        <v>0.00310933145242457</v>
+        <v>0.005672102632140802</v>
       </c>
       <c r="T2">
-        <v>0.00310933145242457</v>
+        <v>0.005672102632140802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H3">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P3">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q3">
-        <v>7.715919887451999</v>
+        <v>22.90502210052</v>
       </c>
       <c r="R3">
-        <v>69.443278987068</v>
+        <v>206.14519890468</v>
       </c>
       <c r="S3">
-        <v>0.05044580789991316</v>
+        <v>0.1470822237108816</v>
       </c>
       <c r="T3">
-        <v>0.05044580789991317</v>
+        <v>0.1470822237108816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H4">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I4">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J4">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N4">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O4">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P4">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q4">
-        <v>0.2441455002785556</v>
+        <v>0.3192701417733333</v>
       </c>
       <c r="R4">
-        <v>2.197309502507</v>
+        <v>2.87343127596</v>
       </c>
       <c r="S4">
-        <v>0.001596195552355238</v>
+        <v>0.002050160100716262</v>
       </c>
       <c r="T4">
-        <v>0.001596195552355238</v>
+        <v>0.002050160100716262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H5">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I5">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J5">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N5">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O5">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P5">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q5">
-        <v>0.6216136769406666</v>
+        <v>1.277903202893333</v>
       </c>
       <c r="R5">
-        <v>5.594523092466</v>
+        <v>11.50112882604</v>
       </c>
       <c r="S5">
-        <v>0.004064039620979362</v>
+        <v>0.008205922873331009</v>
       </c>
       <c r="T5">
-        <v>0.004064039620979363</v>
+        <v>0.008205922873331009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H6">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I6">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J6">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N6">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P6">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q6">
-        <v>0.2801602186413334</v>
+        <v>0.2195996623566667</v>
       </c>
       <c r="R6">
-        <v>2.521441967772</v>
+        <v>1.97639696121</v>
       </c>
       <c r="S6">
-        <v>0.001831655690692433</v>
+        <v>0.001410136454958672</v>
       </c>
       <c r="T6">
-        <v>0.001831655690692433</v>
+        <v>0.001410136454958672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H7">
         <v>15.405879</v>
       </c>
       <c r="I7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N7">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P7">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q7">
-        <v>6.521717692375668</v>
+        <v>4.080411382526</v>
       </c>
       <c r="R7">
-        <v>58.69545923138101</v>
+        <v>36.72370244273399</v>
       </c>
       <c r="S7">
-        <v>0.04263824957826126</v>
+        <v>0.02620193847285097</v>
       </c>
       <c r="T7">
-        <v>0.04263824957826126</v>
+        <v>0.02620193847285097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H8">
         <v>15.405879</v>
       </c>
       <c r="I8">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J8">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>61.812468</v>
       </c>
       <c r="O8">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P8">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q8">
         <v>105.808378077708</v>
       </c>
       <c r="R8">
-        <v>952.2754026993722</v>
+        <v>952.2754026993719</v>
       </c>
       <c r="S8">
-        <v>0.6917631588412012</v>
+        <v>0.6794375253869622</v>
       </c>
       <c r="T8">
-        <v>0.6917631588412014</v>
+        <v>0.6794375253869621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H9">
         <v>15.405879</v>
       </c>
       <c r="I9">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J9">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N9">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O9">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P9">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q9">
-        <v>3.347966253700334</v>
+        <v>1.474849302542667</v>
       </c>
       <c r="R9">
-        <v>30.13169628330301</v>
+        <v>13.273643722884</v>
       </c>
       <c r="S9">
-        <v>0.02188862312635172</v>
+        <v>0.009470591824990795</v>
       </c>
       <c r="T9">
-        <v>0.02188862312635172</v>
+        <v>0.009470591824990793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H10">
         <v>15.405879</v>
       </c>
       <c r="I10">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J10">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N10">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O10">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P10">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q10">
-        <v>8.524185827146001</v>
+        <v>5.903197326990666</v>
       </c>
       <c r="R10">
-        <v>76.717672444314</v>
+        <v>53.12877594291599</v>
       </c>
       <c r="S10">
-        <v>0.05573015881601772</v>
+        <v>0.0379067693559749</v>
       </c>
       <c r="T10">
-        <v>0.05573015881601773</v>
+        <v>0.0379067693559749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H11">
         <v>15.405879</v>
       </c>
       <c r="I11">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J11">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N11">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P11">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q11">
-        <v>3.841835940332001</v>
+        <v>1.014427490984333</v>
       </c>
       <c r="R11">
-        <v>34.57652346298801</v>
+        <v>9.129847418859001</v>
       </c>
       <c r="S11">
-        <v>0.02511748704702658</v>
+        <v>0.006514040916993428</v>
       </c>
       <c r="T11">
-        <v>0.02511748704702658</v>
+        <v>0.006514040916993429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H12">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I12">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J12">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N12">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O12">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P12">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q12">
-        <v>0.7104528717797778</v>
+        <v>0.06898110660866666</v>
       </c>
       <c r="R12">
-        <v>6.394075846018</v>
+        <v>0.6208299594779999</v>
       </c>
       <c r="S12">
-        <v>0.004644860187056636</v>
+        <v>0.0004429550213710445</v>
       </c>
       <c r="T12">
-        <v>0.004644860187056636</v>
+        <v>0.0004429550213710445</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H13">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I13">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J13">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>61.812468</v>
       </c>
       <c r="O13">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P13">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q13">
-        <v>11.526390685624</v>
+        <v>1.788736067036</v>
       </c>
       <c r="R13">
-        <v>103.737516170616</v>
+        <v>16.098624603324</v>
       </c>
       <c r="S13">
-        <v>0.07535823320974752</v>
+        <v>0.01148618312686712</v>
       </c>
       <c r="T13">
-        <v>0.07535823320974755</v>
+        <v>0.01148618312686712</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H14">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I14">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J14">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N14">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O14">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P14">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q14">
-        <v>0.3647156089482222</v>
+        <v>0.02493296078088889</v>
       </c>
       <c r="R14">
-        <v>3.282440480534</v>
+        <v>0.224396647028</v>
       </c>
       <c r="S14">
-        <v>0.002384469229264833</v>
+        <v>0.0001601044216091842</v>
       </c>
       <c r="T14">
-        <v>0.002384469229264834</v>
+        <v>0.0001601044216091842</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H15">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I15">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J15">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N15">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O15">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P15">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q15">
-        <v>0.9285946718546666</v>
+        <v>0.09979608573022221</v>
       </c>
       <c r="R15">
-        <v>8.357352046692</v>
+        <v>0.8981647715719999</v>
       </c>
       <c r="S15">
-        <v>0.006071046500812288</v>
+        <v>0.0006408302136722072</v>
       </c>
       <c r="T15">
-        <v>0.00607104650081229</v>
+        <v>0.0006408302136722073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H16">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I16">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J16">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7481240000000001</v>
+        <v>0.1975403333333333</v>
       </c>
       <c r="N16">
-        <v>2.244372</v>
+        <v>0.5926210000000001</v>
       </c>
       <c r="O16">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="P16">
-        <v>0.03000400976428538</v>
+        <v>0.008576400524262026</v>
       </c>
       <c r="Q16">
-        <v>0.4185160268293334</v>
+        <v>0.01714933234477778</v>
       </c>
       <c r="R16">
-        <v>3.766644241464001</v>
+        <v>0.154343991103</v>
       </c>
       <c r="S16">
-        <v>0.002736210251068239</v>
+        <v>0.0001101226589242015</v>
       </c>
       <c r="T16">
-        <v>0.00273621025106824</v>
+        <v>0.0001101226589242016</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H17">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I17">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J17">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.269979666666667</v>
+        <v>0.794582</v>
       </c>
       <c r="N17">
-        <v>3.809939</v>
+        <v>2.383746</v>
       </c>
       <c r="O17">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410986</v>
       </c>
       <c r="P17">
-        <v>0.05093337778110387</v>
+        <v>0.03449752952410985</v>
       </c>
       <c r="Q17">
-        <v>0.0827387519567778</v>
+        <v>0.27232708886</v>
       </c>
       <c r="R17">
-        <v>0.7446487676110001</v>
+        <v>2.45094379974</v>
       </c>
       <c r="S17">
-        <v>0.0005409365633614015</v>
+        <v>0.001748720155364107</v>
       </c>
       <c r="T17">
-        <v>0.0005409365633614015</v>
+        <v>0.001748720155364107</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H18">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I18">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J18">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>61.812468</v>
       </c>
       <c r="O18">
-        <v>0.8263433572627786</v>
+        <v>0.8945489325574519</v>
       </c>
       <c r="P18">
-        <v>0.8263433572627789</v>
+        <v>0.8945489325574517</v>
       </c>
       <c r="Q18">
-        <v>1.342353895348</v>
+        <v>7.061662385879999</v>
       </c>
       <c r="R18">
-        <v>12.081185058132</v>
+        <v>63.55496147291999</v>
       </c>
       <c r="S18">
-        <v>0.008776157311916701</v>
+        <v>0.04534573257570183</v>
       </c>
       <c r="T18">
-        <v>0.008776157311916702</v>
+        <v>0.04534573257570182</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H19">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I19">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J19">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6519523333333334</v>
+        <v>0.2871986666666667</v>
       </c>
       <c r="N19">
-        <v>1.955857</v>
+        <v>0.8615959999999999</v>
       </c>
       <c r="O19">
-        <v>0.02614698121592405</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="P19">
-        <v>0.02614698121592406</v>
+        <v>0.01246900191876775</v>
       </c>
       <c r="Q19">
-        <v>0.04247447719922223</v>
+        <v>0.09843159902666666</v>
       </c>
       <c r="R19">
-        <v>0.3822702947930001</v>
+        <v>0.8858843912399998</v>
       </c>
       <c r="S19">
-        <v>0.000277693307952264</v>
+        <v>0.0006320683038298097</v>
       </c>
       <c r="T19">
-        <v>0.000277693307952264</v>
+        <v>0.0006320683038298096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H20">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I20">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J20">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.659922</v>
+        <v>1.149534666666667</v>
       </c>
       <c r="N20">
-        <v>4.979766</v>
+        <v>3.448604</v>
       </c>
       <c r="O20">
-        <v>0.06657227397590787</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="P20">
-        <v>0.06657227397590788</v>
+        <v>0.04990813547540859</v>
       </c>
       <c r="Q20">
-        <v>0.1081433649926667</v>
+        <v>0.3939800163066666</v>
       </c>
       <c r="R20">
-        <v>0.973290284934</v>
+        <v>3.54582014676</v>
       </c>
       <c r="S20">
-        <v>0.0007070290380984977</v>
+        <v>0.002529901811128066</v>
       </c>
       <c r="T20">
-        <v>0.000707029038098498</v>
+        <v>0.002529901811128066</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.34273</v>
+      </c>
+      <c r="H21">
+        <v>1.02819</v>
+      </c>
+      <c r="I21">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J21">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1975403333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.5926210000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="P21">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="Q21">
+        <v>0.06770299844333333</v>
+      </c>
+      <c r="R21">
+        <v>0.60932698599</v>
+      </c>
+      <c r="S21">
+        <v>0.0004347477823526637</v>
+      </c>
+      <c r="T21">
+        <v>0.0004347477823526637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.253892</v>
+      </c>
+      <c r="I22">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J22">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.794582</v>
+      </c>
+      <c r="N22">
+        <v>2.383746</v>
+      </c>
+      <c r="O22">
+        <v>0.03449752952410986</v>
+      </c>
+      <c r="P22">
+        <v>0.03449752952410985</v>
+      </c>
+      <c r="Q22">
+        <v>0.06724600438133334</v>
+      </c>
+      <c r="R22">
+        <v>0.605214039432</v>
+      </c>
+      <c r="S22">
+        <v>0.0004318132423829293</v>
+      </c>
+      <c r="T22">
+        <v>0.0004318132423829292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.253892</v>
+      </c>
+      <c r="I23">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J23">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>20.604156</v>
+      </c>
+      <c r="N23">
+        <v>61.812468</v>
+      </c>
+      <c r="O23">
+        <v>0.8945489325574519</v>
+      </c>
+      <c r="P23">
+        <v>0.8945489325574517</v>
+      </c>
+      <c r="Q23">
+        <v>1.743743458384</v>
+      </c>
+      <c r="R23">
+        <v>15.693691125456</v>
+      </c>
+      <c r="S23">
+        <v>0.01119726775703916</v>
+      </c>
+      <c r="T23">
+        <v>0.01119726775703915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.253892</v>
+      </c>
+      <c r="I24">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J24">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2871986666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.8615959999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.01246900191876775</v>
+      </c>
+      <c r="P24">
+        <v>0.01246900191876775</v>
+      </c>
+      <c r="Q24">
+        <v>0.02430581462577778</v>
+      </c>
+      <c r="R24">
+        <v>0.218752331632</v>
+      </c>
+      <c r="S24">
+        <v>0.0001560772676217023</v>
+      </c>
+      <c r="T24">
+        <v>0.0001560772676217023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.06514966666666668</v>
-      </c>
-      <c r="H21">
-        <v>0.195449</v>
-      </c>
-      <c r="I21">
-        <v>0.01062047299682699</v>
-      </c>
-      <c r="J21">
-        <v>0.01062047299682699</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.7481240000000001</v>
-      </c>
-      <c r="N21">
-        <v>2.244372</v>
-      </c>
-      <c r="O21">
-        <v>0.03000400976428538</v>
-      </c>
-      <c r="P21">
-        <v>0.03000400976428538</v>
-      </c>
-      <c r="Q21">
-        <v>0.04874002922533335</v>
-      </c>
-      <c r="R21">
-        <v>0.4386602630280001</v>
-      </c>
-      <c r="S21">
-        <v>0.0003186567754981262</v>
-      </c>
-      <c r="T21">
-        <v>0.0003186567754981263</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.253892</v>
+      </c>
+      <c r="I25">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J25">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.149534666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.448604</v>
+      </c>
+      <c r="O25">
+        <v>0.04990813547540859</v>
+      </c>
+      <c r="P25">
+        <v>0.04990813547540859</v>
+      </c>
+      <c r="Q25">
+        <v>0.09728588519644445</v>
+      </c>
+      <c r="R25">
+        <v>0.875572966768</v>
+      </c>
+      <c r="S25">
+        <v>0.000624711221302412</v>
+      </c>
+      <c r="T25">
+        <v>0.000624711221302412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.253892</v>
+      </c>
+      <c r="I26">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J26">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1975403333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.5926210000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="P26">
+        <v>0.008576400524262026</v>
+      </c>
+      <c r="Q26">
+        <v>0.01671797010355556</v>
+      </c>
+      <c r="R26">
+        <v>0.150461730932</v>
+      </c>
+      <c r="S26">
+        <v>0.0001073527110330605</v>
+      </c>
+      <c r="T26">
+        <v>0.0001073527110330606</v>
       </c>
     </row>
   </sheetData>
